--- a/results_comparison.xlsx
+++ b/results_comparison.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>mu</t>
   </si>
@@ -90,14 +90,24 @@
   </si>
   <si>
     <t>it goes don't but best</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>a bit crazy altough some results</t>
+  </si>
+  <si>
+    <t>best learning curve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,19 +152,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +547,7 @@
       <c r="G2" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="9">
         <v>0.01</v>
       </c>
       <c r="I2" s="3">
@@ -574,7 +585,7 @@
       <c r="G3" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="10">
         <v>1E-3</v>
       </c>
       <c r="I3" s="3">
@@ -606,10 +617,10 @@
       <c r="G4" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H4" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="H4" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="4">
         <v>0.9</v>
       </c>
       <c r="J4" t="s">
@@ -641,10 +652,10 @@
       <c r="G5" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H5" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="H5" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="5">
         <v>0.99</v>
       </c>
       <c r="J5" t="s">
@@ -667,13 +678,13 @@
       <c r="E6" s="2">
         <v>0.02</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>1E-3</v>
       </c>
       <c r="G6" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="11">
         <v>0.01</v>
       </c>
       <c r="I6" s="3">
@@ -702,13 +713,13 @@
       <c r="E7" s="2">
         <v>0.02</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>1E-4</v>
       </c>
       <c r="G7" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="11">
         <v>0.01</v>
       </c>
       <c r="I7" s="3">
@@ -734,13 +745,13 @@
       <c r="E8" s="2">
         <v>0.02</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G8" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="11">
         <v>0.01</v>
       </c>
       <c r="I8" s="3">
@@ -769,13 +780,13 @@
       <c r="E9" s="2">
         <v>0.02</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G9" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="11">
         <v>0.01</v>
       </c>
       <c r="I9" s="3">
@@ -804,13 +815,13 @@
       <c r="E10" s="2">
         <v>0.02</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="G10" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="11">
         <v>0.01</v>
       </c>
       <c r="I10" s="3">
@@ -836,13 +847,13 @@
       <c r="E11" s="2">
         <v>0.02</v>
       </c>
-      <c r="F11" s="11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="F11" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="11">
         <v>0.01</v>
       </c>
       <c r="I11" s="3">
@@ -871,13 +882,13 @@
       <c r="E12" s="2">
         <v>0.02</v>
       </c>
-      <c r="F12" s="11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="F12" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="H12" s="11">
         <v>0.01</v>
       </c>
       <c r="I12" s="3">
@@ -903,13 +914,13 @@
       <c r="E13" s="2">
         <v>0.02</v>
       </c>
-      <c r="F13" s="11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G13" s="6">
         <v>1E-4</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="11">
         <v>0.01</v>
       </c>
       <c r="I13" s="3">
@@ -935,13 +946,13 @@
       <c r="E14" s="2">
         <v>0.02</v>
       </c>
-      <c r="F14" s="11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="F14" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H14" s="11">
         <v>0.01</v>
       </c>
       <c r="I14" s="3">
@@ -956,6 +967,224 @@
       <c r="L14" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
